--- a/Template/Alumnos_Template.xlsx
+++ b/Template/Alumnos_Template.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisQuiroga\PycharmProjects\Rousseau\AlumnosRousseau\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisQuiroga\PycharmProjects\RousseauStudents\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CC441C-2E1D-4F16-8A0C-E514E7194CD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651B25D-30DD-4D3B-8F2C-6B6E758CD63E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
+    <workbookView xWindow="1680" yWindow="3510" windowWidth="21600" windowHeight="11475" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alumnos!$A$1:$AY$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>FECHA DE NACIMIENTO</t>
   </si>
@@ -39,12 +42,6 @@
     <t>CURP</t>
   </si>
   <si>
-    <t>GRADO A CURSAR</t>
-  </si>
-  <si>
-    <t>CICLO ESCOLAR</t>
-  </si>
-  <si>
     <t>ESCUELA DE PROCEDENCIA</t>
   </si>
   <si>
@@ -133,13 +130,28 @@
   </si>
   <si>
     <t>FECHA DE INSCRIPCION</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>GRADO DE INSCRIPCION</t>
+  </si>
+  <si>
+    <t>CICLO ESCOLAR DE INSCRIPCION</t>
+  </si>
+  <si>
+    <t>GRADO EN CURSO</t>
+  </si>
+  <si>
+    <t>CICLO ESCOLAR ACTUAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +226,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -277,15 +301,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
@@ -293,10 +318,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Énfasis6" xfId="6" builtinId="49"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,67 +639,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B4577-DBFD-4C97-9B1B-228F4B90C73E}">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -681,142 +711,152 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AR1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AS1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AT1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AU1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AV1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AW1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AX1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AY1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AY1" xr:uid="{213CBA60-7057-4BB8-B987-BDB51F030BEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Template/Alumnos_Template.xlsx
+++ b/Template/Alumnos_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisQuiroga\PycharmProjects\RousseauStudents\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651B25D-30DD-4D3B-8F2C-6B6E758CD63E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD531B5-4650-4335-B3AF-38DB88CBA88B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3510" windowWidth="21600" windowHeight="11475" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
+    <workbookView xWindow="120" yWindow="1905" windowWidth="24585" windowHeight="11475" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
   <si>
     <t>FECHA DE NACIMIENTO</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CICLO ESCOLAR ACTUAL</t>
+  </si>
+  <si>
+    <t>FECHA DE BAJA</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
@@ -319,6 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Énfasis5" xfId="5" builtinId="48"/>
@@ -639,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B4577-DBFD-4C97-9B1B-228F4B90C73E}">
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,9 +708,10 @@
     <col min="49" max="49" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -854,9 +865,11 @@
       <c r="AY1" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="AZ1" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY1" xr:uid="{213CBA60-7057-4BB8-B987-BDB51F030BEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Template/Alumnos_Template.xlsx
+++ b/Template/Alumnos_Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisQuiroga\PycharmProjects\RousseauStudents\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD531B5-4650-4335-B3AF-38DB88CBA88B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D8E54-61EC-48CA-BC7A-55557837CFD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1905" windowWidth="24585" windowHeight="11475" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
+    <workbookView xWindow="4905" yWindow="1095" windowWidth="21600" windowHeight="11475" xr2:uid="{AC875B91-6E53-4816-B475-AA6B24858C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Alumnos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alumnos!$A$1:$AY$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alumnos!$A$1:$AZ$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>FECHA DE NACIMIENTO</t>
   </si>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B4577-DBFD-4C97-9B1B-228F4B90C73E}">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
     <col min="49" max="49" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -870,6 +870,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AZ1" xr:uid="{E0FAA2CA-74F6-41FE-9007-0F5233A4BC1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>